--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>45504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45890</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>45582</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45782</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1172,14 +1172,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 24725-2021</t>
+          <t>A 34759-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44340</v>
+        <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1197,19 +1197,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>38.3</v>
       </c>
       <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
         <v>5</v>
       </c>
-      <c r="I7" t="n">
-        <v>6</v>
-      </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1221,15 +1221,127 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>15</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Blå taggsvamp
+Grantaggsvamp
+Motaggsvamp
+Skogshare
+Spillkråka
+Talltita
+Ullticka
+Dropptaggsvamp
+Grönpyrola
+Mindre märgborre
+Plattlummer
+Vedticka
+Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 34759-2023 artfynd.xlsx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 34759-2023 karta.png", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="U7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/knärot/A 34759-2023 karta knärot.png", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 34759-2023 FSC-klagomål.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 34759-2023 FSC-klagomål mail.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 34759-2023 tillsynsbegäran.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 34759-2023 tillsynsbegäran mail.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 34759-2023 prioriterade fågelarter.docx", "A 34759-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 24725-2021</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44340</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>13</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>15</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Björktrast
 Blå taggsvamp
@@ -1248,144 +1360,32 @@
 Vanlig padda</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 24725-2021 artfynd.xlsx", "A 24725-2021")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 24725-2021 karta.png", "A 24725-2021")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 24725-2021 FSC-klagomål.docx", "A 24725-2021")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 24725-2021 FSC-klagomål mail.docx", "A 24725-2021")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 24725-2021 tillsynsbegäran.docx", "A 24725-2021")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 24725-2021 tillsynsbegäran mail.docx", "A 24725-2021")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 24725-2021 prioriterade fågelarter.docx", "A 24725-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 34759-2023</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>38.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>8</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>15</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Blå taggsvamp
-Grantaggsvamp
-Motaggsvamp
-Skogshare
-Spillkråka
-Talltita
-Ullticka
-Dropptaggsvamp
-Grönpyrola
-Mindre märgborre
-Plattlummer
-Vedticka
-Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 34759-2023 artfynd.xlsx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 34759-2023 karta.png", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/knärot/A 34759-2023 karta knärot.png", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 34759-2023 FSC-klagomål.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 34759-2023 FSC-klagomål mail.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 34759-2023 tillsynsbegäran.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 34759-2023 tillsynsbegäran mail.docx", "A 34759-2023")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 34759-2023 prioriterade fågelarter.docx", "A 34759-2023")</f>
         <v/>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
         <v>45282</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1503,14 +1503,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 40942-2023</t>
+          <t>A 25573-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45169</v>
+        <v>45463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1528,19 +1528,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7.6</v>
+        <v>20.3</v>
       </c>
       <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
         <v>6</v>
       </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1555,12 +1555,122 @@
         <v>7</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
         <v>13</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Vågticka
+Gropticka
+Krusfrö
+Motaggsvamp
+Skrovlig taggsvamp
+Talltita
+Blodticka
+Dropptaggsvamp
+Grönpyrola
+Gullgröppa
+Mindre märgborre
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 25573-2024 artfynd.xlsx", "A 25573-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 25573-2024 karta.png", "A 25573-2024")</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/knärot/A 25573-2024 karta knärot.png", "A 25573-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 25573-2024 FSC-klagomål.docx", "A 25573-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 25573-2024 FSC-klagomål mail.docx", "A 25573-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 25573-2024 tillsynsbegäran.docx", "A 25573-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 25573-2024 tillsynsbegäran mail.docx", "A 25573-2024")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 25573-2024 prioriterade fågelarter.docx", "A 25573-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 40942-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>13</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Järpe
 Motaggsvamp
@@ -1577,142 +1687,32 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 40942-2023 artfynd.xlsx", "A 40942-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 40942-2023 karta.png", "A 40942-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 40942-2023 FSC-klagomål.docx", "A 40942-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 40942-2023 FSC-klagomål mail.docx", "A 40942-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 40942-2023 tillsynsbegäran.docx", "A 40942-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 40942-2023 tillsynsbegäran mail.docx", "A 40942-2023")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 40942-2023 prioriterade fågelarter.docx", "A 40942-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 25573-2024</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45463</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>7</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>13</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Vågticka
-Gropticka
-Krusfrö
-Motaggsvamp
-Skrovlig taggsvamp
-Talltita
-Blodticka
-Dropptaggsvamp
-Grönpyrola
-Gullgröppa
-Mindre märgborre
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 25573-2024 artfynd.xlsx", "A 25573-2024")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 25573-2024 karta.png", "A 25573-2024")</f>
-        <v/>
-      </c>
-      <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/knärot/A 25573-2024 karta knärot.png", "A 25573-2024")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 25573-2024 FSC-klagomål.docx", "A 25573-2024")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 25573-2024 FSC-klagomål mail.docx", "A 25573-2024")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 25573-2024 tillsynsbegäran.docx", "A 25573-2024")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 25573-2024 tillsynsbegäran mail.docx", "A 25573-2024")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 25573-2024 prioriterade fågelarter.docx", "A 25573-2024")</f>
         <v/>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
         <v>45435</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45523</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45070</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45574</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>44518.56545138889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2223,14 +2223,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 14815-2025</t>
+          <t>A 56299-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45743.34931712963</v>
+        <v>44477</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2244,23 +2244,23 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2275,12 +2275,111 @@
         <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>6</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Större flatbagge
+Tretåig hackspett
+Björksplintborre
+Blodticka
+Korallblylav
+Skinnlav</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 56299-2021 artfynd.xlsx", "A 56299-2021")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 56299-2021 karta.png", "A 56299-2021")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 56299-2021 FSC-klagomål.docx", "A 56299-2021")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 56299-2021 FSC-klagomål mail.docx", "A 56299-2021")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 56299-2021 tillsynsbegäran.docx", "A 56299-2021")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 56299-2021 tillsynsbegäran mail.docx", "A 56299-2021")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 56299-2021 prioriterade fågelarter.docx", "A 56299-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 14815-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45743.34931712963</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Bombmurkla
 Veckticka
@@ -2290,127 +2389,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 14815-2025 artfynd.xlsx", "A 14815-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 14815-2025 karta.png", "A 14815-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 14815-2025 FSC-klagomål.docx", "A 14815-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 14815-2025 FSC-klagomål mail.docx", "A 14815-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 14815-2025 tillsynsbegäran.docx", "A 14815-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 14815-2025 tillsynsbegäran mail.docx", "A 14815-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 56299-2021</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44477</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>6</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Större flatbagge
-Tretåig hackspett
-Björksplintborre
-Blodticka
-Korallblylav
-Skinnlav</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 56299-2021 artfynd.xlsx", "A 56299-2021")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 56299-2021 karta.png", "A 56299-2021")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 56299-2021 FSC-klagomål.docx", "A 56299-2021")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 56299-2021 FSC-klagomål mail.docx", "A 56299-2021")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 56299-2021 tillsynsbegäran.docx", "A 56299-2021")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 56299-2021 tillsynsbegäran mail.docx", "A 56299-2021")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 56299-2021 prioriterade fågelarter.docx", "A 56299-2021")</f>
         <v/>
       </c>
     </row>
@@ -2424,7 +2424,7 @@
         <v>45348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>45890</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>44518</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2702,14 +2702,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 48891-2023</t>
+          <t>A 4105-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45203</v>
+        <v>45684</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2727,16 +2727,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>14.7</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2760,6 +2760,107 @@
         <v>4</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Knärot
+Havsörn
+Ullticka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 4105-2025 artfynd.xlsx", "A 4105-2025")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 4105-2025 karta.png", "A 4105-2025")</f>
+        <v/>
+      </c>
+      <c r="U22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/knärot/A 4105-2025 karta knärot.png", "A 4105-2025")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 4105-2025 FSC-klagomål.docx", "A 4105-2025")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 4105-2025 FSC-klagomål mail.docx", "A 4105-2025")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 4105-2025 tillsynsbegäran.docx", "A 4105-2025")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 4105-2025 tillsynsbegäran mail.docx", "A 4105-2025")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 4105-2025 prioriterade fågelarter.docx", "A 4105-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 48891-2023</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Spillkråka
@@ -2767,137 +2868,36 @@
 Gröngöling</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 48891-2023 artfynd.xlsx", "A 48891-2023")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 48891-2023 karta.png", "A 48891-2023")</f>
         <v/>
       </c>
-      <c r="U22">
+      <c r="U23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/knärot/A 48891-2023 karta knärot.png", "A 48891-2023")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 48891-2023 FSC-klagomål.docx", "A 48891-2023")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 48891-2023 FSC-klagomål mail.docx", "A 48891-2023")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 48891-2023 tillsynsbegäran.docx", "A 48891-2023")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 48891-2023 tillsynsbegäran mail.docx", "A 48891-2023")</f>
         <v/>
       </c>
-      <c r="Z22">
+      <c r="Z23">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 48891-2023 prioriterade fågelarter.docx", "A 48891-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 4105-2025</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45684</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Havsörn
-Ullticka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 4105-2025 artfynd.xlsx", "A 4105-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 4105-2025 karta.png", "A 4105-2025")</f>
-        <v/>
-      </c>
-      <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/knärot/A 4105-2025 karta knärot.png", "A 4105-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 4105-2025 FSC-klagomål.docx", "A 4105-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 4105-2025 FSC-klagomål mail.docx", "A 4105-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 4105-2025 tillsynsbegäran.docx", "A 4105-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 4105-2025 tillsynsbegäran mail.docx", "A 4105-2025")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 4105-2025 prioriterade fågelarter.docx", "A 4105-2025")</f>
         <v/>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
         <v>45783.54804398148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>45463</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>45545</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>45282</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3296,14 +3296,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 39694-2025</t>
+          <t>A 48128-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45890</v>
+        <v>45205</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3317,17 +3317,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.9</v>
+        <v>11.8</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -3354,853 +3354,853 @@
         <v>3</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>Svinrot
+Blodticka
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 48128-2023 artfynd.xlsx", "A 48128-2023")</f>
+        <v/>
+      </c>
+      <c r="T28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 48128-2023 karta.png", "A 48128-2023")</f>
+        <v/>
+      </c>
+      <c r="V28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 48128-2023 FSC-klagomål.docx", "A 48128-2023")</f>
+        <v/>
+      </c>
+      <c r="W28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 48128-2023 FSC-klagomål mail.docx", "A 48128-2023")</f>
+        <v/>
+      </c>
+      <c r="X28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 48128-2023 tillsynsbegäran.docx", "A 48128-2023")</f>
+        <v/>
+      </c>
+      <c r="Y28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 48128-2023 tillsynsbegäran mail.docx", "A 48128-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A 42860-2022</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>44832</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Ask
+Scharlakansvårskål agg.</t>
+        </is>
+      </c>
+      <c r="S29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 42860-2022 artfynd.xlsx", "A 42860-2022")</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 42860-2022 karta.png", "A 42860-2022")</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 42860-2022 FSC-klagomål.docx", "A 42860-2022")</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 42860-2022 FSC-klagomål mail.docx", "A 42860-2022")</f>
+        <v/>
+      </c>
+      <c r="X29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 42860-2022 tillsynsbegäran.docx", "A 42860-2022")</f>
+        <v/>
+      </c>
+      <c r="Y29">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 42860-2022 tillsynsbegäran mail.docx", "A 42860-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>A 42708-2022</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>44832</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Spillkråka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 42708-2022 artfynd.xlsx", "A 42708-2022")</f>
+        <v/>
+      </c>
+      <c r="T30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 42708-2022 karta.png", "A 42708-2022")</f>
+        <v/>
+      </c>
+      <c r="V30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 42708-2022 FSC-klagomål.docx", "A 42708-2022")</f>
+        <v/>
+      </c>
+      <c r="W30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 42708-2022 FSC-klagomål mail.docx", "A 42708-2022")</f>
+        <v/>
+      </c>
+      <c r="X30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 42708-2022 tillsynsbegäran.docx", "A 42708-2022")</f>
+        <v/>
+      </c>
+      <c r="Y30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 42708-2022 tillsynsbegäran mail.docx", "A 42708-2022")</f>
+        <v/>
+      </c>
+      <c r="Z30">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 42708-2022 prioriterade fågelarter.docx", "A 42708-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>A 39694-2025</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>45890</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp
 Mindre märgborre
 Tjäder</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 39694-2025 artfynd.xlsx", "A 39694-2025")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 39694-2025 karta.png", "A 39694-2025")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 39694-2025 FSC-klagomål.docx", "A 39694-2025")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 39694-2025 FSC-klagomål mail.docx", "A 39694-2025")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 39694-2025 tillsynsbegäran.docx", "A 39694-2025")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 39694-2025 tillsynsbegäran mail.docx", "A 39694-2025")</f>
         <v/>
       </c>
-      <c r="Z28">
+      <c r="Z31">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 39694-2025 prioriterade fågelarter.docx", "A 39694-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>A 42860-2022</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="n">
-        <v>44832</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>A 29707-2025</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>45825.56100694444</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>2</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Veckticka
+Rävticka</t>
+        </is>
+      </c>
+      <c r="S32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 29707-2025 artfynd.xlsx", "A 29707-2025")</f>
+        <v/>
+      </c>
+      <c r="T32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 29707-2025 karta.png", "A 29707-2025")</f>
+        <v/>
+      </c>
+      <c r="V32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 29707-2025 FSC-klagomål.docx", "A 29707-2025")</f>
+        <v/>
+      </c>
+      <c r="W32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 29707-2025 FSC-klagomål mail.docx", "A 29707-2025")</f>
+        <v/>
+      </c>
+      <c r="X32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 29707-2025 tillsynsbegäran.docx", "A 29707-2025")</f>
+        <v/>
+      </c>
+      <c r="Y32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 29707-2025 tillsynsbegäran mail.docx", "A 29707-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>A 49718-2023</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>45212</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
         <v>2</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>3</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Ask
-Scharlakansvårskål agg.</t>
-        </is>
-      </c>
-      <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 42860-2022 artfynd.xlsx", "A 42860-2022")</f>
-        <v/>
-      </c>
-      <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 42860-2022 karta.png", "A 42860-2022")</f>
-        <v/>
-      </c>
-      <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 42860-2022 FSC-klagomål.docx", "A 42860-2022")</f>
-        <v/>
-      </c>
-      <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 42860-2022 FSC-klagomål mail.docx", "A 42860-2022")</f>
-        <v/>
-      </c>
-      <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 42860-2022 tillsynsbegäran.docx", "A 42860-2022")</f>
-        <v/>
-      </c>
-      <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 42860-2022 tillsynsbegäran mail.docx", "A 42860-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp
+Talltita
+Zontaggsvamp</t>
+        </is>
+      </c>
+      <c r="S33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 49718-2023 artfynd.xlsx", "A 49718-2023")</f>
+        <v/>
+      </c>
+      <c r="T33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 49718-2023 karta.png", "A 49718-2023")</f>
+        <v/>
+      </c>
+      <c r="V33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 49718-2023 FSC-klagomål.docx", "A 49718-2023")</f>
+        <v/>
+      </c>
+      <c r="W33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 49718-2023 FSC-klagomål mail.docx", "A 49718-2023")</f>
+        <v/>
+      </c>
+      <c r="X33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 49718-2023 tillsynsbegäran.docx", "A 49718-2023")</f>
+        <v/>
+      </c>
+      <c r="Y33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 49718-2023 tillsynsbegäran mail.docx", "A 49718-2023")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 49718-2023 prioriterade fågelarter.docx", "A 49718-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>A 8552-2022</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>44613</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Talltita
+Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 8552-2022 artfynd.xlsx", "A 8552-2022")</f>
+        <v/>
+      </c>
+      <c r="T34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 8552-2022 karta.png", "A 8552-2022")</f>
+        <v/>
+      </c>
+      <c r="V34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 8552-2022 FSC-klagomål.docx", "A 8552-2022")</f>
+        <v/>
+      </c>
+      <c r="W34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 8552-2022 FSC-klagomål mail.docx", "A 8552-2022")</f>
+        <v/>
+      </c>
+      <c r="X34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 8552-2022 tillsynsbegäran.docx", "A 8552-2022")</f>
+        <v/>
+      </c>
+      <c r="Y34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 8552-2022 tillsynsbegäran mail.docx", "A 8552-2022")</f>
+        <v/>
+      </c>
+      <c r="Z34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 8552-2022 prioriterade fågelarter.docx", "A 8552-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" t="inlineStr">
         <is>
           <t>A 20391-2024</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B35" s="1" t="n">
         <v>45435</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
+      <c r="C35" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>1.5</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>2</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>3</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R35" s="2" t="inlineStr">
         <is>
           <t>Vedtrappmossa
 Kattfotslav
 Stubbspretmossa</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S35">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 20391-2024 artfynd.xlsx", "A 20391-2024")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T35">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 20391-2024 karta.png", "A 20391-2024")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V35">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 20391-2024 FSC-klagomål.docx", "A 20391-2024")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W35">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 20391-2024 FSC-klagomål mail.docx", "A 20391-2024")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X35">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 20391-2024 tillsynsbegäran.docx", "A 20391-2024")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y35">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 20391-2024 tillsynsbegäran mail.docx", "A 20391-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>A 42853-2022</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>44832</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Kandelabersvamp
+Tvåblad</t>
+        </is>
+      </c>
+      <c r="S36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 42853-2022 artfynd.xlsx", "A 42853-2022")</f>
+        <v/>
+      </c>
+      <c r="T36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 42853-2022 karta.png", "A 42853-2022")</f>
+        <v/>
+      </c>
+      <c r="V36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 42853-2022 FSC-klagomål.docx", "A 42853-2022")</f>
+        <v/>
+      </c>
+      <c r="W36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 42853-2022 FSC-klagomål mail.docx", "A 42853-2022")</f>
+        <v/>
+      </c>
+      <c r="X36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 42853-2022 tillsynsbegäran.docx", "A 42853-2022")</f>
+        <v/>
+      </c>
+      <c r="Y36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 42853-2022 tillsynsbegäran mail.docx", "A 42853-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
         <is>
           <t>A 38200-2021</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B37" s="1" t="n">
         <v>44405</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="C37" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G37" t="n">
         <v>1.5</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>2</v>
       </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q31" t="n">
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
         <v>3</v>
       </c>
-      <c r="R31" s="2" t="inlineStr">
+      <c r="R37" s="2" t="inlineStr">
         <is>
           <t>Vågticka
 Svinrot
 Kopparödla</t>
         </is>
       </c>
-      <c r="S31">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 38200-2021 artfynd.xlsx", "A 38200-2021")</f>
         <v/>
       </c>
-      <c r="T31">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 38200-2021 karta.png", "A 38200-2021")</f>
         <v/>
       </c>
-      <c r="V31">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 38200-2021 FSC-klagomål.docx", "A 38200-2021")</f>
         <v/>
       </c>
-      <c r="W31">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 38200-2021 FSC-klagomål mail.docx", "A 38200-2021")</f>
         <v/>
       </c>
-      <c r="X31">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 38200-2021 tillsynsbegäran.docx", "A 38200-2021")</f>
         <v/>
       </c>
-      <c r="Y31">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 38200-2021 tillsynsbegäran mail.docx", "A 38200-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>A 8552-2022</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="n">
-        <v>44613</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>2</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3</v>
-      </c>
-      <c r="R32" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita
-Mindre märgborre</t>
-        </is>
-      </c>
-      <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 8552-2022 artfynd.xlsx", "A 8552-2022")</f>
-        <v/>
-      </c>
-      <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 8552-2022 karta.png", "A 8552-2022")</f>
-        <v/>
-      </c>
-      <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 8552-2022 FSC-klagomål.docx", "A 8552-2022")</f>
-        <v/>
-      </c>
-      <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 8552-2022 FSC-klagomål mail.docx", "A 8552-2022")</f>
-        <v/>
-      </c>
-      <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 8552-2022 tillsynsbegäran.docx", "A 8552-2022")</f>
-        <v/>
-      </c>
-      <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 8552-2022 tillsynsbegäran mail.docx", "A 8552-2022")</f>
-        <v/>
-      </c>
-      <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 8552-2022 prioriterade fågelarter.docx", "A 8552-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>A 49718-2023</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="n">
-        <v>45212</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp
-Talltita
-Zontaggsvamp</t>
-        </is>
-      </c>
-      <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 49718-2023 artfynd.xlsx", "A 49718-2023")</f>
-        <v/>
-      </c>
-      <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 49718-2023 karta.png", "A 49718-2023")</f>
-        <v/>
-      </c>
-      <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 49718-2023 FSC-klagomål.docx", "A 49718-2023")</f>
-        <v/>
-      </c>
-      <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 49718-2023 FSC-klagomål mail.docx", "A 49718-2023")</f>
-        <v/>
-      </c>
-      <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 49718-2023 tillsynsbegäran.docx", "A 49718-2023")</f>
-        <v/>
-      </c>
-      <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 49718-2023 tillsynsbegäran mail.docx", "A 49718-2023")</f>
-        <v/>
-      </c>
-      <c r="Z33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 49718-2023 prioriterade fågelarter.docx", "A 49718-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>A 48128-2023</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="n">
-        <v>45205</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot
-Blodticka
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 48128-2023 artfynd.xlsx", "A 48128-2023")</f>
-        <v/>
-      </c>
-      <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 48128-2023 karta.png", "A 48128-2023")</f>
-        <v/>
-      </c>
-      <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 48128-2023 FSC-klagomål.docx", "A 48128-2023")</f>
-        <v/>
-      </c>
-      <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 48128-2023 FSC-klagomål mail.docx", "A 48128-2023")</f>
-        <v/>
-      </c>
-      <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 48128-2023 tillsynsbegäran.docx", "A 48128-2023")</f>
-        <v/>
-      </c>
-      <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 48128-2023 tillsynsbegäran mail.docx", "A 48128-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>A 42708-2022</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="n">
-        <v>44832</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>2</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
-      <c r="R35" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Spillkråka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 42708-2022 artfynd.xlsx", "A 42708-2022")</f>
-        <v/>
-      </c>
-      <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 42708-2022 karta.png", "A 42708-2022")</f>
-        <v/>
-      </c>
-      <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 42708-2022 FSC-klagomål.docx", "A 42708-2022")</f>
-        <v/>
-      </c>
-      <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 42708-2022 FSC-klagomål mail.docx", "A 42708-2022")</f>
-        <v/>
-      </c>
-      <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 42708-2022 tillsynsbegäran.docx", "A 42708-2022")</f>
-        <v/>
-      </c>
-      <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 42708-2022 tillsynsbegäran mail.docx", "A 42708-2022")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 42708-2022 prioriterade fågelarter.docx", "A 42708-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>A 42853-2022</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="n">
-        <v>44832</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>2</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Kandelabersvamp
-Tvåblad</t>
-        </is>
-      </c>
-      <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 42853-2022 artfynd.xlsx", "A 42853-2022")</f>
-        <v/>
-      </c>
-      <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 42853-2022 karta.png", "A 42853-2022")</f>
-        <v/>
-      </c>
-      <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 42853-2022 FSC-klagomål.docx", "A 42853-2022")</f>
-        <v/>
-      </c>
-      <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 42853-2022 FSC-klagomål mail.docx", "A 42853-2022")</f>
-        <v/>
-      </c>
-      <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 42853-2022 tillsynsbegäran.docx", "A 42853-2022")</f>
-        <v/>
-      </c>
-      <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 42853-2022 tillsynsbegäran mail.docx", "A 42853-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>A 29707-2025</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="n">
-        <v>45825.56100694444</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Veckticka
-Rävticka</t>
-        </is>
-      </c>
-      <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 29707-2025 artfynd.xlsx", "A 29707-2025")</f>
-        <v/>
-      </c>
-      <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 29707-2025 karta.png", "A 29707-2025")</f>
-        <v/>
-      </c>
-      <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 29707-2025 FSC-klagomål.docx", "A 29707-2025")</f>
-        <v/>
-      </c>
-      <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 29707-2025 FSC-klagomål mail.docx", "A 29707-2025")</f>
-        <v/>
-      </c>
-      <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 29707-2025 tillsynsbegäran.docx", "A 29707-2025")</f>
-        <v/>
-      </c>
-      <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 29707-2025 tillsynsbegäran mail.docx", "A 29707-2025")</f>
         <v/>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
         <v>44402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4298,14 +4298,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 40403-2025</t>
+          <t>A 41576-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45895</v>
+        <v>44826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4319,14 +4319,14 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -4357,585 +4357,585 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
+          <t>Talltita
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S39">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 41576-2022 artfynd.xlsx", "A 41576-2022")</f>
+        <v/>
+      </c>
+      <c r="T39">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 41576-2022 karta.png", "A 41576-2022")</f>
+        <v/>
+      </c>
+      <c r="V39">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 41576-2022 FSC-klagomål.docx", "A 41576-2022")</f>
+        <v/>
+      </c>
+      <c r="W39">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 41576-2022 FSC-klagomål mail.docx", "A 41576-2022")</f>
+        <v/>
+      </c>
+      <c r="X39">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 41576-2022 tillsynsbegäran.docx", "A 41576-2022")</f>
+        <v/>
+      </c>
+      <c r="Y39">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 41576-2022 tillsynsbegäran mail.docx", "A 41576-2022")</f>
+        <v/>
+      </c>
+      <c r="Z39">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 41576-2022 prioriterade fågelarter.docx", "A 41576-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>A 40403-2025</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>45895</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
           <t>Igelkott
 Gröngöling</t>
         </is>
       </c>
-      <c r="S39">
+      <c r="S40">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 40403-2025 artfynd.xlsx", "A 40403-2025")</f>
         <v/>
       </c>
-      <c r="T39">
+      <c r="T40">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 40403-2025 karta.png", "A 40403-2025")</f>
         <v/>
       </c>
-      <c r="V39">
+      <c r="V40">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 40403-2025 FSC-klagomål.docx", "A 40403-2025")</f>
         <v/>
       </c>
-      <c r="W39">
+      <c r="W40">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 40403-2025 FSC-klagomål mail.docx", "A 40403-2025")</f>
         <v/>
       </c>
-      <c r="X39">
+      <c r="X40">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 40403-2025 tillsynsbegäran.docx", "A 40403-2025")</f>
         <v/>
       </c>
-      <c r="Y39">
+      <c r="Y40">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 40403-2025 tillsynsbegäran mail.docx", "A 40403-2025")</f>
         <v/>
       </c>
-      <c r="Z39">
+      <c r="Z40">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 40403-2025 prioriterade fågelarter.docx", "A 40403-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>A 62097-2024</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>45646</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>Mattlummer
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 62097-2024 artfynd.xlsx", "A 62097-2024")</f>
+        <v/>
+      </c>
+      <c r="T41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 62097-2024 karta.png", "A 62097-2024")</f>
+        <v/>
+      </c>
+      <c r="V41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 62097-2024 FSC-klagomål.docx", "A 62097-2024")</f>
+        <v/>
+      </c>
+      <c r="W41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 62097-2024 FSC-klagomål mail.docx", "A 62097-2024")</f>
+        <v/>
+      </c>
+      <c r="X41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 62097-2024 tillsynsbegäran.docx", "A 62097-2024")</f>
+        <v/>
+      </c>
+      <c r="Y41">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 62097-2024 tillsynsbegäran mail.docx", "A 62097-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>A 63146-2025</t>
         </is>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B42" s="1" t="n">
         <v>46009</v>
       </c>
-      <c r="C40" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
+      <c r="C42" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="G42" t="n">
         <v>10.2</v>
       </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>2</v>
       </c>
-      <c r="R40" s="2" t="inlineStr">
+      <c r="R42" s="2" t="inlineStr">
         <is>
           <t>Svart trolldruva
 Blåsippa</t>
         </is>
       </c>
-      <c r="S40">
+      <c r="S42">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 63146-2025 artfynd.xlsx", "A 63146-2025")</f>
         <v/>
       </c>
-      <c r="T40">
+      <c r="T42">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 63146-2025 karta.png", "A 63146-2025")</f>
         <v/>
       </c>
-      <c r="V40">
+      <c r="V42">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 63146-2025 FSC-klagomål.docx", "A 63146-2025")</f>
         <v/>
       </c>
-      <c r="W40">
+      <c r="W42">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 63146-2025 FSC-klagomål mail.docx", "A 63146-2025")</f>
         <v/>
       </c>
-      <c r="X40">
+      <c r="X42">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 63146-2025 tillsynsbegäran.docx", "A 63146-2025")</f>
         <v/>
       </c>
-      <c r="Y40">
+      <c r="Y42">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 63146-2025 tillsynsbegäran mail.docx", "A 63146-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>A 62097-2024</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>45646</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
+    <row r="43" ht="15" customHeight="1">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>A 37800-2021</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>44402</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>Svinrot
+Grönvit nattviol</t>
+        </is>
+      </c>
+      <c r="S43">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 37800-2021 artfynd.xlsx", "A 37800-2021")</f>
+        <v/>
+      </c>
+      <c r="T43">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 37800-2021 karta.png", "A 37800-2021")</f>
+        <v/>
+      </c>
+      <c r="V43">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 37800-2021 FSC-klagomål.docx", "A 37800-2021")</f>
+        <v/>
+      </c>
+      <c r="W43">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 37800-2021 FSC-klagomål mail.docx", "A 37800-2021")</f>
+        <v/>
+      </c>
+      <c r="X43">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 37800-2021 tillsynsbegäran.docx", "A 37800-2021")</f>
+        <v/>
+      </c>
+      <c r="Y43">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 37800-2021 tillsynsbegäran mail.docx", "A 37800-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>A 4082-2025</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G41" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="G44" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>2</v>
       </c>
-      <c r="R41" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 62097-2024 artfynd.xlsx", "A 62097-2024")</f>
-        <v/>
-      </c>
-      <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 62097-2024 karta.png", "A 62097-2024")</f>
-        <v/>
-      </c>
-      <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 62097-2024 FSC-klagomål.docx", "A 62097-2024")</f>
-        <v/>
-      </c>
-      <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 62097-2024 FSC-klagomål mail.docx", "A 62097-2024")</f>
-        <v/>
-      </c>
-      <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 62097-2024 tillsynsbegäran.docx", "A 62097-2024")</f>
-        <v/>
-      </c>
-      <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 62097-2024 tillsynsbegäran mail.docx", "A 62097-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="inlineStr">
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>Grönpyrola
+Plattlummer</t>
+        </is>
+      </c>
+      <c r="S44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 4082-2025 artfynd.xlsx", "A 4082-2025")</f>
+        <v/>
+      </c>
+      <c r="T44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 4082-2025 karta.png", "A 4082-2025")</f>
+        <v/>
+      </c>
+      <c r="V44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 4082-2025 FSC-klagomål.docx", "A 4082-2025")</f>
+        <v/>
+      </c>
+      <c r="W44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 4082-2025 FSC-klagomål mail.docx", "A 4082-2025")</f>
+        <v/>
+      </c>
+      <c r="X44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 4082-2025 tillsynsbegäran.docx", "A 4082-2025")</f>
+        <v/>
+      </c>
+      <c r="Y44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 4082-2025 tillsynsbegäran mail.docx", "A 4082-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1">
+      <c r="A45" t="inlineStr">
         <is>
           <t>A 41204-2023</t>
         </is>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B45" s="1" t="n">
         <v>45174</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="C45" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SURAHAMMAR</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>2</v>
       </c>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="n">
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
         <v>2</v>
       </c>
-      <c r="R42" s="2" t="inlineStr">
+      <c r="R45" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Vedtrappmossa</t>
         </is>
       </c>
-      <c r="S42">
+      <c r="S45">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 41204-2023 artfynd.xlsx", "A 41204-2023")</f>
         <v/>
       </c>
-      <c r="T42">
+      <c r="T45">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 41204-2023 karta.png", "A 41204-2023")</f>
         <v/>
       </c>
-      <c r="U42">
+      <c r="U45">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/knärot/A 41204-2023 karta knärot.png", "A 41204-2023")</f>
         <v/>
       </c>
-      <c r="V42">
+      <c r="V45">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 41204-2023 FSC-klagomål.docx", "A 41204-2023")</f>
         <v/>
       </c>
-      <c r="W42">
+      <c r="W45">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 41204-2023 FSC-klagomål mail.docx", "A 41204-2023")</f>
         <v/>
       </c>
-      <c r="X42">
+      <c r="X45">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 41204-2023 tillsynsbegäran.docx", "A 41204-2023")</f>
         <v/>
       </c>
-      <c r="Y42">
+      <c r="Y45">
         <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 41204-2023 tillsynsbegäran mail.docx", "A 41204-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>A 4082-2025</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>45684</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2</v>
-      </c>
-      <c r="R43" s="2" t="inlineStr">
-        <is>
-          <t>Grönpyrola
-Plattlummer</t>
-        </is>
-      </c>
-      <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 4082-2025 artfynd.xlsx", "A 4082-2025")</f>
-        <v/>
-      </c>
-      <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 4082-2025 karta.png", "A 4082-2025")</f>
-        <v/>
-      </c>
-      <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 4082-2025 FSC-klagomål.docx", "A 4082-2025")</f>
-        <v/>
-      </c>
-      <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 4082-2025 FSC-klagomål mail.docx", "A 4082-2025")</f>
-        <v/>
-      </c>
-      <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 4082-2025 tillsynsbegäran.docx", "A 4082-2025")</f>
-        <v/>
-      </c>
-      <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 4082-2025 tillsynsbegäran mail.docx", "A 4082-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>A 41576-2022</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>44826</v>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2</v>
-      </c>
-      <c r="R44" s="2" t="inlineStr">
-        <is>
-          <t>Talltita
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 41576-2022 artfynd.xlsx", "A 41576-2022")</f>
-        <v/>
-      </c>
-      <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 41576-2022 karta.png", "A 41576-2022")</f>
-        <v/>
-      </c>
-      <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 41576-2022 FSC-klagomål.docx", "A 41576-2022")</f>
-        <v/>
-      </c>
-      <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 41576-2022 FSC-klagomål mail.docx", "A 41576-2022")</f>
-        <v/>
-      </c>
-      <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 41576-2022 tillsynsbegäran.docx", "A 41576-2022")</f>
-        <v/>
-      </c>
-      <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 41576-2022 tillsynsbegäran mail.docx", "A 41576-2022")</f>
-        <v/>
-      </c>
-      <c r="Z44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 41576-2022 prioriterade fågelarter.docx", "A 41576-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>A 37800-2021</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>44402</v>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>VÄSTMANLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>SURAHAMMAR</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2</v>
-      </c>
-      <c r="R45" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot
-Grönvit nattviol</t>
-        </is>
-      </c>
-      <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 37800-2021 artfynd.xlsx", "A 37800-2021")</f>
-        <v/>
-      </c>
-      <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 37800-2021 karta.png", "A 37800-2021")</f>
-        <v/>
-      </c>
-      <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 37800-2021 FSC-klagomål.docx", "A 37800-2021")</f>
-        <v/>
-      </c>
-      <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 37800-2021 FSC-klagomål mail.docx", "A 37800-2021")</f>
-        <v/>
-      </c>
-      <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 37800-2021 tillsynsbegäran.docx", "A 37800-2021")</f>
-        <v/>
-      </c>
-      <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 37800-2021 tillsynsbegäran mail.docx", "A 37800-2021")</f>
         <v/>
       </c>
     </row>
@@ -4949,7 +4949,7 @@
         <v>45783</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44405.43472222222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>44739</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44306</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5393,14 +5393,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 40411-2021</t>
+          <t>A 30074-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44419</v>
+        <v>45110</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
@@ -5452,45 +5452,45 @@
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 40411-2021 artfynd.xlsx", "A 40411-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 30074-2023 artfynd.xlsx", "A 30074-2023")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 40411-2021 karta.png", "A 40411-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 30074-2023 karta.png", "A 30074-2023")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 40411-2021 FSC-klagomål.docx", "A 40411-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 30074-2023 FSC-klagomål.docx", "A 30074-2023")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 40411-2021 FSC-klagomål mail.docx", "A 40411-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 30074-2023 FSC-klagomål mail.docx", "A 30074-2023")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 40411-2021 tillsynsbegäran.docx", "A 40411-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 30074-2023 tillsynsbegäran.docx", "A 30074-2023")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 40411-2021 tillsynsbegäran mail.docx", "A 40411-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 30074-2023 tillsynsbegäran mail.docx", "A 30074-2023")</f>
         <v/>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 33231-2024</t>
+          <t>A 40411-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45518</v>
+        <v>44419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5504,11 +5504,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H52" t="n">
         <v>1</v>
@@ -5542,45 +5542,45 @@
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 33231-2024 artfynd.xlsx", "A 33231-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 40411-2021 artfynd.xlsx", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 33231-2024 karta.png", "A 33231-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 40411-2021 karta.png", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 33231-2024 FSC-klagomål.docx", "A 33231-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 40411-2021 FSC-klagomål.docx", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 33231-2024 FSC-klagomål mail.docx", "A 33231-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 40411-2021 FSC-klagomål mail.docx", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 33231-2024 tillsynsbegäran.docx", "A 33231-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 40411-2021 tillsynsbegäran.docx", "A 40411-2021")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 33231-2024 tillsynsbegäran mail.docx", "A 33231-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 40411-2021 tillsynsbegäran mail.docx", "A 40411-2021")</f>
         <v/>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 30074-2023</t>
+          <t>A 56362-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45110</v>
+        <v>45236</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5594,17 +5594,17 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>15.2</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -5632,45 +5632,45 @@
       </c>
       <c r="R53" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 30074-2023 artfynd.xlsx", "A 30074-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 56362-2023 artfynd.xlsx", "A 56362-2023")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 30074-2023 karta.png", "A 30074-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 56362-2023 karta.png", "A 56362-2023")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 30074-2023 FSC-klagomål.docx", "A 30074-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 56362-2023 FSC-klagomål.docx", "A 56362-2023")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 30074-2023 FSC-klagomål mail.docx", "A 30074-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 56362-2023 FSC-klagomål mail.docx", "A 56362-2023")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 30074-2023 tillsynsbegäran.docx", "A 30074-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 56362-2023 tillsynsbegäran.docx", "A 56362-2023")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 30074-2023 tillsynsbegäran mail.docx", "A 30074-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 56362-2023 tillsynsbegäran mail.docx", "A 56362-2023")</f>
         <v/>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 34582-2025</t>
+          <t>A 13788-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45846</v>
+        <v>45737.45327546296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5682,13 +5682,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
@@ -5697,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -5712,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -5722,49 +5717,49 @@
       </c>
       <c r="R54" s="2" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Sparvuggla</t>
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 34582-2025 artfynd.xlsx", "A 34582-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 13788-2025 artfynd.xlsx", "A 13788-2025")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 34582-2025 karta.png", "A 34582-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 13788-2025 karta.png", "A 13788-2025")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 34582-2025 FSC-klagomål.docx", "A 34582-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 13788-2025 FSC-klagomål.docx", "A 13788-2025")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 34582-2025 FSC-klagomål mail.docx", "A 34582-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 13788-2025 FSC-klagomål mail.docx", "A 13788-2025")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 34582-2025 tillsynsbegäran.docx", "A 34582-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 13788-2025 tillsynsbegäran.docx", "A 13788-2025")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 34582-2025 tillsynsbegäran mail.docx", "A 34582-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 13788-2025 tillsynsbegäran mail.docx", "A 13788-2025")</f>
         <v/>
       </c>
       <c r="Z54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 34582-2025 prioriterade fågelarter.docx", "A 34582-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 13788-2025 prioriterade fågelarter.docx", "A 13788-2025")</f>
         <v/>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 31176-2024</t>
+          <t>A 47453-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45503</v>
+        <v>45587.55017361111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5776,22 +5771,17 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>10.7</v>
+        <v>5.1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
@@ -5806,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -5816,45 +5806,49 @@
       </c>
       <c r="R55" s="2" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Göktyta</t>
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 31176-2024 artfynd.xlsx", "A 31176-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 47453-2024 artfynd.xlsx", "A 47453-2024")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 31176-2024 karta.png", "A 31176-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 47453-2024 karta.png", "A 47453-2024")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 31176-2024 FSC-klagomål.docx", "A 31176-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 47453-2024 FSC-klagomål.docx", "A 47453-2024")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 31176-2024 FSC-klagomål mail.docx", "A 31176-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 47453-2024 FSC-klagomål mail.docx", "A 47453-2024")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 31176-2024 tillsynsbegäran.docx", "A 31176-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 47453-2024 tillsynsbegäran.docx", "A 47453-2024")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 31176-2024 tillsynsbegäran mail.docx", "A 31176-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 47453-2024 tillsynsbegäran mail.docx", "A 47453-2024")</f>
+        <v/>
+      </c>
+      <c r="Z55">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 47453-2024 prioriterade fågelarter.docx", "A 47453-2024")</f>
         <v/>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 56768-2025</t>
+          <t>A 34582-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45978</v>
+        <v>45846</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5868,14 +5862,14 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5906,45 +5900,49 @@
       </c>
       <c r="R56" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 56768-2025 artfynd.xlsx", "A 56768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 34582-2025 artfynd.xlsx", "A 34582-2025")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 56768-2025 karta.png", "A 56768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 34582-2025 karta.png", "A 34582-2025")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 56768-2025 FSC-klagomål.docx", "A 56768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 34582-2025 FSC-klagomål.docx", "A 34582-2025")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 56768-2025 FSC-klagomål mail.docx", "A 56768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 34582-2025 FSC-klagomål mail.docx", "A 34582-2025")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 56768-2025 tillsynsbegäran.docx", "A 56768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 34582-2025 tillsynsbegäran.docx", "A 34582-2025")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 56768-2025 tillsynsbegäran mail.docx", "A 56768-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 34582-2025 tillsynsbegäran mail.docx", "A 34582-2025")</f>
+        <v/>
+      </c>
+      <c r="Z56">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 34582-2025 prioriterade fågelarter.docx", "A 34582-2025")</f>
         <v/>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 42089-2025</t>
+          <t>A 25583-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45902</v>
+        <v>45463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5956,17 +5954,22 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>7.8</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -5981,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -5991,45 +5994,45 @@
       </c>
       <c r="R57" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 42089-2025 artfynd.xlsx", "A 42089-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 25583-2024 artfynd.xlsx", "A 25583-2024")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 42089-2025 karta.png", "A 42089-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 25583-2024 karta.png", "A 25583-2024")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 42089-2025 FSC-klagomål.docx", "A 42089-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 25583-2024 FSC-klagomål.docx", "A 25583-2024")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 42089-2025 FSC-klagomål mail.docx", "A 42089-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 25583-2024 FSC-klagomål mail.docx", "A 25583-2024")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 42089-2025 tillsynsbegäran.docx", "A 42089-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 25583-2024 tillsynsbegäran.docx", "A 25583-2024")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 42089-2025 tillsynsbegäran mail.docx", "A 42089-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 25583-2024 tillsynsbegäran mail.docx", "A 25583-2024")</f>
         <v/>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 56362-2023</t>
+          <t>A 42089-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45236</v>
+        <v>45902</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6041,22 +6044,17 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>15.2</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -6071,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -6081,31 +6079,31 @@
       </c>
       <c r="R58" s="2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 56362-2023 artfynd.xlsx", "A 56362-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 42089-2025 artfynd.xlsx", "A 42089-2025")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 56362-2023 karta.png", "A 56362-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 42089-2025 karta.png", "A 42089-2025")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 56362-2023 FSC-klagomål.docx", "A 56362-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 42089-2025 FSC-klagomål.docx", "A 42089-2025")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 56362-2023 FSC-klagomål mail.docx", "A 56362-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 42089-2025 FSC-klagomål mail.docx", "A 42089-2025")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 56362-2023 tillsynsbegäran.docx", "A 56362-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 42089-2025 tillsynsbegäran.docx", "A 42089-2025")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 56362-2023 tillsynsbegäran mail.docx", "A 56362-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 42089-2025 tillsynsbegäran mail.docx", "A 42089-2025")</f>
         <v/>
       </c>
     </row>
@@ -6119,7 +6117,7 @@
         <v>44817</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6202,14 +6200,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 69777-2021</t>
+          <t>A 42765-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44532</v>
+        <v>44832</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6222,7 +6220,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -6234,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
@@ -6246,55 +6244,55 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
         <v>1</v>
       </c>
       <c r="R60" s="2" t="inlineStr">
         <is>
-          <t>Bombmurkla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 69777-2021 artfynd.xlsx", "A 69777-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 42765-2022 artfynd.xlsx", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 69777-2021 karta.png", "A 69777-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 42765-2022 karta.png", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 69777-2021 FSC-klagomål.docx", "A 69777-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 42765-2022 FSC-klagomål.docx", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 69777-2021 FSC-klagomål mail.docx", "A 69777-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 42765-2022 FSC-klagomål mail.docx", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 69777-2021 tillsynsbegäran.docx", "A 69777-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 42765-2022 tillsynsbegäran.docx", "A 42765-2022")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 69777-2021 tillsynsbegäran mail.docx", "A 69777-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 42765-2022 tillsynsbegäran mail.docx", "A 42765-2022")</f>
         <v/>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 14001-2023</t>
+          <t>A 10819-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45007</v>
+        <v>45369.66049768519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6306,22 +6304,17 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -6336,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -6346,45 +6339,45 @@
       </c>
       <c r="R61" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 14001-2023 artfynd.xlsx", "A 14001-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 10819-2024 artfynd.xlsx", "A 10819-2024")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 14001-2023 karta.png", "A 14001-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 10819-2024 karta.png", "A 10819-2024")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 14001-2023 FSC-klagomål.docx", "A 14001-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 10819-2024 FSC-klagomål.docx", "A 10819-2024")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 14001-2023 FSC-klagomål mail.docx", "A 14001-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 10819-2024 FSC-klagomål mail.docx", "A 10819-2024")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 14001-2023 tillsynsbegäran.docx", "A 14001-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 10819-2024 tillsynsbegäran.docx", "A 10819-2024")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 14001-2023 tillsynsbegäran mail.docx", "A 14001-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 10819-2024 tillsynsbegäran mail.docx", "A 10819-2024")</f>
         <v/>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 63145-2025</t>
+          <t>A 69777-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46009</v>
+        <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6396,25 +6389,20 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>40.5</v>
+        <v>2.3</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -6426,55 +6414,55 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" t="n">
         <v>1</v>
       </c>
       <c r="R62" s="2" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Bombmurkla</t>
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 63145-2025 artfynd.xlsx", "A 63145-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 69777-2021 artfynd.xlsx", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 63145-2025 karta.png", "A 63145-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 69777-2021 karta.png", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 63145-2025 FSC-klagomål.docx", "A 63145-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 69777-2021 FSC-klagomål.docx", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 63145-2025 FSC-klagomål mail.docx", "A 63145-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 69777-2021 FSC-klagomål mail.docx", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 63145-2025 tillsynsbegäran.docx", "A 63145-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 69777-2021 tillsynsbegäran.docx", "A 69777-2021")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 63145-2025 tillsynsbegäran mail.docx", "A 63145-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 69777-2021 tillsynsbegäran mail.docx", "A 69777-2021")</f>
         <v/>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 47453-2024</t>
+          <t>A 55042-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45587.55017361111</v>
+        <v>45967.65858796296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6486,17 +6474,22 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -6511,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -6521,49 +6514,45 @@
       </c>
       <c r="R63" s="2" t="inlineStr">
         <is>
-          <t>Göktyta</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 47453-2024 artfynd.xlsx", "A 47453-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 55042-2025 artfynd.xlsx", "A 55042-2025")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 47453-2024 karta.png", "A 47453-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 55042-2025 karta.png", "A 55042-2025")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 47453-2024 FSC-klagomål.docx", "A 47453-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 55042-2025 FSC-klagomål.docx", "A 55042-2025")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 47453-2024 FSC-klagomål mail.docx", "A 47453-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 55042-2025 FSC-klagomål mail.docx", "A 55042-2025")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 47453-2024 tillsynsbegäran.docx", "A 47453-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 55042-2025 tillsynsbegäran.docx", "A 55042-2025")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 47453-2024 tillsynsbegäran mail.docx", "A 47453-2024")</f>
-        <v/>
-      </c>
-      <c r="Z63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 47453-2024 prioriterade fågelarter.docx", "A 47453-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 55042-2025 tillsynsbegäran mail.docx", "A 55042-2025")</f>
         <v/>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 25583-2024</t>
+          <t>A 17632-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45463</v>
+        <v>44680</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6575,19 +6564,14 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -6615,45 +6599,45 @@
       </c>
       <c r="R64" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Blodticka</t>
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 25583-2024 artfynd.xlsx", "A 25583-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 17632-2022 artfynd.xlsx", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 25583-2024 karta.png", "A 25583-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 17632-2022 karta.png", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 25583-2024 FSC-klagomål.docx", "A 25583-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 17632-2022 FSC-klagomål.docx", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 25583-2024 FSC-klagomål mail.docx", "A 25583-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 17632-2022 FSC-klagomål mail.docx", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 25583-2024 tillsynsbegäran.docx", "A 25583-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 17632-2022 tillsynsbegäran.docx", "A 17632-2022")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 25583-2024 tillsynsbegäran mail.docx", "A 25583-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 17632-2022 tillsynsbegäran mail.docx", "A 17632-2022")</f>
         <v/>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 10819-2024</t>
+          <t>A 56768-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45369.66049768519</v>
+        <v>45978</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6665,17 +6649,22 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -6690,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -6700,45 +6689,45 @@
       </c>
       <c r="R65" s="2" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 10819-2024 artfynd.xlsx", "A 10819-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 56768-2025 artfynd.xlsx", "A 56768-2025")</f>
         <v/>
       </c>
       <c r="T65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 10819-2024 karta.png", "A 10819-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 56768-2025 karta.png", "A 56768-2025")</f>
         <v/>
       </c>
       <c r="V65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 10819-2024 FSC-klagomål.docx", "A 10819-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 56768-2025 FSC-klagomål.docx", "A 56768-2025")</f>
         <v/>
       </c>
       <c r="W65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 10819-2024 FSC-klagomål mail.docx", "A 10819-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 56768-2025 FSC-klagomål mail.docx", "A 56768-2025")</f>
         <v/>
       </c>
       <c r="X65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 10819-2024 tillsynsbegäran.docx", "A 10819-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 56768-2025 tillsynsbegäran.docx", "A 56768-2025")</f>
         <v/>
       </c>
       <c r="Y65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 10819-2024 tillsynsbegäran mail.docx", "A 10819-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 56768-2025 tillsynsbegäran mail.docx", "A 56768-2025")</f>
         <v/>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 55042-2025</t>
+          <t>A 44356-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45967.65858796296</v>
+        <v>45573</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6756,16 +6745,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>7.2</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -6780,7 +6769,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -6790,45 +6779,45 @@
       </c>
       <c r="R66" s="2" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 55042-2025 artfynd.xlsx", "A 55042-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 44356-2024 artfynd.xlsx", "A 44356-2024")</f>
         <v/>
       </c>
       <c r="T66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 55042-2025 karta.png", "A 55042-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 44356-2024 karta.png", "A 44356-2024")</f>
         <v/>
       </c>
       <c r="V66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 55042-2025 FSC-klagomål.docx", "A 55042-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 44356-2024 FSC-klagomål.docx", "A 44356-2024")</f>
         <v/>
       </c>
       <c r="W66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 55042-2025 FSC-klagomål mail.docx", "A 55042-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 44356-2024 FSC-klagomål mail.docx", "A 44356-2024")</f>
         <v/>
       </c>
       <c r="X66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 55042-2025 tillsynsbegäran.docx", "A 55042-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 44356-2024 tillsynsbegäran.docx", "A 44356-2024")</f>
         <v/>
       </c>
       <c r="Y66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 55042-2025 tillsynsbegäran mail.docx", "A 55042-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 44356-2024 tillsynsbegäran mail.docx", "A 44356-2024")</f>
         <v/>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 13971-2023</t>
+          <t>A 63145-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45007</v>
+        <v>46009</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6846,13 +6835,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.9</v>
+        <v>40.5</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -6880,45 +6869,45 @@
       </c>
       <c r="R67" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="S67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 13971-2023 artfynd.xlsx", "A 13971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 63145-2025 artfynd.xlsx", "A 63145-2025")</f>
         <v/>
       </c>
       <c r="T67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 13971-2023 karta.png", "A 13971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 63145-2025 karta.png", "A 63145-2025")</f>
         <v/>
       </c>
       <c r="V67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 13971-2023 FSC-klagomål.docx", "A 13971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 63145-2025 FSC-klagomål.docx", "A 63145-2025")</f>
         <v/>
       </c>
       <c r="W67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 13971-2023 FSC-klagomål mail.docx", "A 13971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 63145-2025 FSC-klagomål mail.docx", "A 63145-2025")</f>
         <v/>
       </c>
       <c r="X67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 13971-2023 tillsynsbegäran.docx", "A 13971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 63145-2025 tillsynsbegäran.docx", "A 63145-2025")</f>
         <v/>
       </c>
       <c r="Y67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 13971-2023 tillsynsbegäran mail.docx", "A 13971-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 63145-2025 tillsynsbegäran mail.docx", "A 63145-2025")</f>
         <v/>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42765-2022</t>
+          <t>A 22840-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44832</v>
+        <v>45072</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6931,7 +6920,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -6965,45 +6954,45 @@
       </c>
       <c r="R68" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="S68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 42765-2022 artfynd.xlsx", "A 42765-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 22840-2023 artfynd.xlsx", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="T68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 42765-2022 karta.png", "A 42765-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 22840-2023 karta.png", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="V68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 42765-2022 FSC-klagomål.docx", "A 42765-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 22840-2023 FSC-klagomål.docx", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="W68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 42765-2022 FSC-klagomål mail.docx", "A 42765-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 22840-2023 FSC-klagomål mail.docx", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="X68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 42765-2022 tillsynsbegäran.docx", "A 42765-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 22840-2023 tillsynsbegäran.docx", "A 22840-2023")</f>
         <v/>
       </c>
       <c r="Y68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 42765-2022 tillsynsbegäran mail.docx", "A 42765-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 22840-2023 tillsynsbegäran mail.docx", "A 22840-2023")</f>
         <v/>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 44356-2024</t>
+          <t>A 33231-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45573</v>
+        <v>45518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7017,11 +7006,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>1</v>
@@ -7055,45 +7044,45 @@
       </c>
       <c r="R69" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="S69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 44356-2024 artfynd.xlsx", "A 44356-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 33231-2024 artfynd.xlsx", "A 33231-2024")</f>
         <v/>
       </c>
       <c r="T69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 44356-2024 karta.png", "A 44356-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 33231-2024 karta.png", "A 33231-2024")</f>
         <v/>
       </c>
       <c r="V69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 44356-2024 FSC-klagomål.docx", "A 44356-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 33231-2024 FSC-klagomål.docx", "A 33231-2024")</f>
         <v/>
       </c>
       <c r="W69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 44356-2024 FSC-klagomål mail.docx", "A 44356-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 33231-2024 FSC-klagomål mail.docx", "A 33231-2024")</f>
         <v/>
       </c>
       <c r="X69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 44356-2024 tillsynsbegäran.docx", "A 44356-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 33231-2024 tillsynsbegäran.docx", "A 33231-2024")</f>
         <v/>
       </c>
       <c r="Y69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 44356-2024 tillsynsbegäran mail.docx", "A 44356-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 33231-2024 tillsynsbegäran mail.docx", "A 33231-2024")</f>
         <v/>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17632-2022</t>
+          <t>A 14001-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44680</v>
+        <v>45007</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7105,17 +7094,22 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -7130,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -7140,45 +7134,45 @@
       </c>
       <c r="R70" s="2" t="inlineStr">
         <is>
-          <t>Blodticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="S70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 17632-2022 artfynd.xlsx", "A 17632-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 14001-2023 artfynd.xlsx", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="T70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 17632-2022 karta.png", "A 17632-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 14001-2023 karta.png", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="V70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 17632-2022 FSC-klagomål.docx", "A 17632-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 14001-2023 FSC-klagomål.docx", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="W70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 17632-2022 FSC-klagomål mail.docx", "A 17632-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 14001-2023 FSC-klagomål mail.docx", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="X70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 17632-2022 tillsynsbegäran.docx", "A 17632-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 14001-2023 tillsynsbegäran.docx", "A 14001-2023")</f>
         <v/>
       </c>
       <c r="Y70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 17632-2022 tillsynsbegäran mail.docx", "A 17632-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 14001-2023 tillsynsbegäran mail.docx", "A 14001-2023")</f>
         <v/>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 22840-2023</t>
+          <t>A 13971-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45072</v>
+        <v>45007</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7190,8 +7184,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -7229,41 +7228,41 @@
         </is>
       </c>
       <c r="S71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 22840-2023 artfynd.xlsx", "A 22840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 13971-2023 artfynd.xlsx", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="T71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 22840-2023 karta.png", "A 22840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 13971-2023 karta.png", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="V71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 22840-2023 FSC-klagomål.docx", "A 22840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 13971-2023 FSC-klagomål.docx", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="W71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 22840-2023 FSC-klagomål mail.docx", "A 22840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 13971-2023 FSC-klagomål mail.docx", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="X71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 22840-2023 tillsynsbegäran.docx", "A 22840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 13971-2023 tillsynsbegäran.docx", "A 13971-2023")</f>
         <v/>
       </c>
       <c r="Y71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 22840-2023 tillsynsbegäran mail.docx", "A 22840-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 13971-2023 tillsynsbegäran mail.docx", "A 13971-2023")</f>
         <v/>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 43451-2024</t>
+          <t>A 31176-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45568</v>
+        <v>45503</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7277,11 +7276,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.9</v>
+        <v>10.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -7315,45 +7314,45 @@
       </c>
       <c r="R72" s="2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="S72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 43451-2024 artfynd.xlsx", "A 43451-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 31176-2024 artfynd.xlsx", "A 31176-2024")</f>
         <v/>
       </c>
       <c r="T72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 43451-2024 karta.png", "A 43451-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 31176-2024 karta.png", "A 31176-2024")</f>
         <v/>
       </c>
       <c r="V72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 43451-2024 FSC-klagomål.docx", "A 43451-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 31176-2024 FSC-klagomål.docx", "A 31176-2024")</f>
         <v/>
       </c>
       <c r="W72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 43451-2024 FSC-klagomål mail.docx", "A 43451-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 31176-2024 FSC-klagomål mail.docx", "A 31176-2024")</f>
         <v/>
       </c>
       <c r="X72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 43451-2024 tillsynsbegäran.docx", "A 43451-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 31176-2024 tillsynsbegäran.docx", "A 31176-2024")</f>
         <v/>
       </c>
       <c r="Y72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 43451-2024 tillsynsbegäran mail.docx", "A 43451-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 31176-2024 tillsynsbegäran mail.docx", "A 31176-2024")</f>
         <v/>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 13788-2025</t>
+          <t>A 43451-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45737.45327546296</v>
+        <v>45568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7365,17 +7364,22 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>9.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -7390,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="n">
         <v>0</v>
@@ -7400,35 +7404,31 @@
       </c>
       <c r="R73" s="2" t="inlineStr">
         <is>
-          <t>Sparvuggla</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="S73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 13788-2025 artfynd.xlsx", "A 13788-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/artfynd/A 43451-2024 artfynd.xlsx", "A 43451-2024")</f>
         <v/>
       </c>
       <c r="T73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 13788-2025 karta.png", "A 13788-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/kartor/A 43451-2024 karta.png", "A 43451-2024")</f>
         <v/>
       </c>
       <c r="V73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 13788-2025 FSC-klagomål.docx", "A 13788-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomål/A 43451-2024 FSC-klagomål.docx", "A 43451-2024")</f>
         <v/>
       </c>
       <c r="W73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 13788-2025 FSC-klagomål mail.docx", "A 13788-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/klagomålsmail/A 43451-2024 FSC-klagomål mail.docx", "A 43451-2024")</f>
         <v/>
       </c>
       <c r="X73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 13788-2025 tillsynsbegäran.docx", "A 13788-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsyn/A 43451-2024 tillsynsbegäran.docx", "A 43451-2024")</f>
         <v/>
       </c>
       <c r="Y73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 13788-2025 tillsynsbegäran mail.docx", "A 13788-2025")</f>
-        <v/>
-      </c>
-      <c r="Z73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1907/fåglar/A 13788-2025 prioriterade fågelarter.docx", "A 13788-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1907/tillsynsmail/A 43451-2024 tillsynsbegäran mail.docx", "A 43451-2024")</f>
         <v/>
       </c>
     </row>
@@ -7442,7 +7442,7 @@
         <v>44509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44340</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44696.88850694444</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44696.88001157407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44782</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>44405</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44586</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44582</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8221,14 +8221,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 19637-2022</t>
+          <t>A 19846-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44694</v>
+        <v>44696.89327546296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8242,11 +8242,11 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -8283,14 +8283,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 19846-2022</t>
+          <t>A 19637-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44696.89327546296</v>
+        <v>44694</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8304,11 +8304,11 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>44518</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44796.64672453704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8469,14 +8469,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 37013-2025</t>
+          <t>A 18723-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45874</v>
+        <v>44306</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>10.7</v>
+        <v>3.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -8531,14 +8531,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 18723-2021</t>
+          <t>A 16608-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44306</v>
+        <v>44672</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -8593,14 +8593,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 33931-2022</t>
+          <t>A 15637-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44790.65153935185</v>
+        <v>44662.89638888889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8650,14 +8650,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 22662-2023</t>
+          <t>A 48205-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45071</v>
+        <v>45205</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8671,11 +8671,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.6</v>
+        <v>7.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -8712,14 +8712,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 37954-2025</t>
+          <t>A 15743-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45881</v>
+        <v>45021</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>9.5</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -8776,7 +8776,7 @@
         <v>45110</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8831,14 +8831,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21509-2024</t>
+          <t>A 8553-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45441</v>
+        <v>44977</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8852,11 +8852,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -8893,14 +8893,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42832-2022</t>
+          <t>A 19786-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44832</v>
+        <v>45050</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8912,8 +8912,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>8.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -8950,14 +8955,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42841-2022</t>
+          <t>A 13119-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44832</v>
+        <v>44643</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8969,8 +8974,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -9007,14 +9017,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 56543-2025</t>
+          <t>A 7787-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45975</v>
+        <v>45348</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9026,13 +9036,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -9069,14 +9074,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 24158-2023</t>
+          <t>A 37287-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45079</v>
+        <v>45156</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9088,13 +9093,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>45902</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9188,14 +9188,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43255-2025</t>
+          <t>A 72367-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45910.55325231481</v>
+        <v>44545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>45831</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45910.55059027778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9364,14 +9364,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 59399-2025</t>
+          <t>A 43255-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45989</v>
+        <v>45910.55325231481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9383,13 +9383,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -9426,14 +9421,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 56541-2025</t>
+          <t>A 33931-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45975</v>
+        <v>44790.65153935185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9445,13 +9440,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>7.6</v>
+        <v>2.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -9488,14 +9478,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 32808-2024</t>
+          <t>A 24158-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45516</v>
+        <v>45079</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9509,11 +9499,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -9550,14 +9540,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 3818-2022</t>
+          <t>A 42714-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44587</v>
+        <v>44832</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9570,7 +9560,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -9607,14 +9597,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 47785-2021</t>
+          <t>A 35682-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44448</v>
+        <v>44799.60422453703</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9628,11 +9618,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -9669,14 +9659,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4724-2026</t>
+          <t>A 11728-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46048</v>
+        <v>44993</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9688,8 +9678,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -9726,14 +9721,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 4734-2026</t>
+          <t>A 5567-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>46048</v>
+        <v>44595</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9746,7 +9741,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -9783,14 +9778,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 13119-2022</t>
+          <t>A 42832-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44643</v>
+        <v>44832</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9802,13 +9797,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -9845,14 +9835,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 19782-2023</t>
+          <t>A 24665-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45050</v>
+        <v>45084.48592592592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9864,13 +9854,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -9907,14 +9892,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 63138-2025</t>
+          <t>A 32808-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46009</v>
+        <v>45516</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9928,11 +9913,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -9969,14 +9954,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 25450-2024</t>
+          <t>A 34584-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45463</v>
+        <v>45846</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9994,7 +9979,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -10031,14 +10016,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 5697-2026</t>
+          <t>A 32916-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46051.50020833333</v>
+        <v>45839</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10052,11 +10037,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -10093,14 +10078,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 5698-2026</t>
+          <t>A 32910-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46051.50196759259</v>
+        <v>45839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10114,11 +10099,11 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -10155,14 +10140,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 5696-2026</t>
+          <t>A 42841-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46051.4975</v>
+        <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10174,13 +10159,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>10.4</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -10217,14 +10197,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 14626-2023</t>
+          <t>A 42829-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45012</v>
+        <v>44832</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10236,13 +10216,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -10279,14 +10254,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 8553-2023</t>
+          <t>A 37013-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44977</v>
+        <v>45874</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10300,11 +10275,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.5</v>
+        <v>10.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -10341,14 +10316,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 56378-2023</t>
+          <t>A 2867-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45236</v>
+        <v>45315</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10366,7 +10341,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -10403,14 +10378,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 11728-2023</t>
+          <t>A 37954-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44993</v>
+        <v>45881</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10422,13 +10397,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>0.4</v>
+        <v>9.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -10465,14 +10435,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 10883-2023</t>
+          <t>A 3085-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44991</v>
+        <v>44946</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10486,11 +10456,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -10527,14 +10497,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 11501-2023</t>
+          <t>A 55868-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44991</v>
+        <v>45973.35263888889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10548,11 +10518,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -10589,14 +10559,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 24665-2023</t>
+          <t>A 55874-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45084.48592592592</v>
+        <v>45973.3569212963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10608,8 +10578,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -10646,14 +10621,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 16013-2023</t>
+          <t>A 55873-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45026</v>
+        <v>45973.35608796297</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10665,8 +10640,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -10703,14 +10683,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 24167-2024</t>
+          <t>A 55871-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45456</v>
+        <v>45973.35452546296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10722,8 +10702,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -10760,14 +10745,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 20904-2023</t>
+          <t>A 56543-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45060</v>
+        <v>45975</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10785,7 +10770,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -10822,14 +10807,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 55868-2025</t>
+          <t>A 49058-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45973.35263888889</v>
+        <v>45594</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10847,7 +10832,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.8</v>
+        <v>11.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -10884,14 +10869,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 55874-2025</t>
+          <t>A 49060-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45973.3569212963</v>
+        <v>45594</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10909,7 +10894,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -10946,14 +10931,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 55871-2025</t>
+          <t>A 34955-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45973.35452546296</v>
+        <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10971,7 +10956,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -11008,14 +10993,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 42829-2022</t>
+          <t>A 20904-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44832</v>
+        <v>45060</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11027,8 +11012,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -11065,14 +11055,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 55873-2025</t>
+          <t>A 10883-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45973.35608796297</v>
+        <v>44991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11086,11 +11076,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>12.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -11127,14 +11117,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 34955-2022</t>
+          <t>A 2660-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44796</v>
+        <v>45310</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11146,13 +11136,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -11189,14 +11174,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 72367-2021</t>
+          <t>A 59399-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44545</v>
+        <v>45989</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11208,8 +11193,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -11246,14 +11236,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 42714-2022</t>
+          <t>A 56541-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44832</v>
+        <v>45975</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11265,8 +11255,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>7.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -11303,14 +11298,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 37287-2023</t>
+          <t>A 4724-2026</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45156</v>
+        <v>46048</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11323,7 +11318,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -11360,14 +11355,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 49058-2024</t>
+          <t>A 4734-2026</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45594</v>
+        <v>46048</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11379,13 +11374,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>11.4</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -11422,14 +11412,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 37798-2021</t>
+          <t>A 14626-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44402</v>
+        <v>45012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11443,11 +11433,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -11484,14 +11474,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 49060-2024</t>
+          <t>A 5697-2026</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45594</v>
+        <v>46051.50020833333</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11509,7 +11499,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -11546,14 +11536,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 48205-2023</t>
+          <t>A 5698-2026</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45205</v>
+        <v>46051.50196759259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11567,11 +11557,11 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>7.6</v>
+        <v>1.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -11608,14 +11598,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 19099-2022</t>
+          <t>A 5696-2026</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44691</v>
+        <v>46051.4975</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11629,11 +11619,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.4</v>
+        <v>10.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -11670,14 +11660,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 25780-2023</t>
+          <t>A 63138-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45090.47523148148</v>
+        <v>46009</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11689,8 +11679,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -11727,14 +11722,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 13386-2025</t>
+          <t>A 37798-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45735</v>
+        <v>44402</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11748,11 +11743,11 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -11789,14 +11784,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 35682-2022</t>
+          <t>A 25450-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44799.60422453703</v>
+        <v>45463</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11810,11 +11805,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -11851,14 +11846,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 2867-2024</t>
+          <t>A 19782-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45315</v>
+        <v>45050</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11876,7 +11871,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.4</v>
+        <v>5.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -11913,14 +11908,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 2660-2024</t>
+          <t>A 7848-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45310</v>
+        <v>44608.58400462963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11970,14 +11965,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 41555-2022</t>
+          <t>A 24167-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44826</v>
+        <v>45456</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11989,13 +11984,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -12032,14 +12022,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 5567-2022</t>
+          <t>A 56378-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44595</v>
+        <v>45236</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12051,8 +12041,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -12089,14 +12084,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 3085-2023</t>
+          <t>A 19099-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44946</v>
+        <v>44691</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12110,11 +12105,11 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -12151,14 +12146,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 7848-2022</t>
+          <t>A 11501-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44608.58400462963</v>
+        <v>44991</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12170,8 +12165,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -12208,14 +12208,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 16608-2022</t>
+          <t>A 3818-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44672</v>
+        <v>44587</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12227,13 +12227,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -12270,14 +12265,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 15743-2023</t>
+          <t>A 21509-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45021</v>
+        <v>45441</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12289,8 +12284,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -12327,14 +12327,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 15637-2022</t>
+          <t>A 22662-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44662.89638888889</v>
+        <v>45071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12346,8 +12346,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -12384,14 +12389,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 19786-2023</t>
+          <t>A 16013-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45050</v>
+        <v>45026</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12403,13 +12408,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>8.1</v>
+        <v>3.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -12446,14 +12446,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 7787-2024</t>
+          <t>A 41555-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45348</v>
+        <v>44826</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12465,8 +12465,13 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -12503,14 +12508,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 15739-2023</t>
+          <t>A 25780-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45021</v>
+        <v>45090.47523148148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12523,7 +12528,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -12560,14 +12565,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 38154-2021</t>
+          <t>A 13386-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44405.42373842592</v>
+        <v>45735</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12581,11 +12586,11 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -12622,14 +12627,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 34584-2025</t>
+          <t>A 47785-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45846</v>
+        <v>44448</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12643,11 +12648,11 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -12684,14 +12689,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 32910-2025</t>
+          <t>A 15739-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45839</v>
+        <v>45021</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12703,13 +12708,8 @@
           <t>SURAHAMMAR</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -12746,14 +12746,14 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 32916-2025</t>
+          <t>A 38154-2021</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45839</v>
+        <v>44405.42373842592</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12767,11 +12767,11 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.9</v>
+        <v>1.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>

--- a/Översikt SURAHAMMAR.xlsx
+++ b/Översikt SURAHAMMAR.xlsx
@@ -575,7 +575,7 @@
         <v>45684</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>45504</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45890</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>45582</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         <v>45782</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>45139</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44340</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>45282</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>45169</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45435</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>45523</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>45070</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45574</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>44518.56545138889</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44477</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>45743.34931712963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>45348</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>45890</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>44518</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         <v>45684</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>45203</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45783.54804398148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>45463</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>45545</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>45282</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45205</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>44832</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>44832</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>45890</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45825.56100694444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         <v>45212</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3852,7 +3852,7 @@
         <v>44613</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45435</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         <v>44832</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>44405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44402</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4305,7 +4305,7 @@
         <v>44826</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45895</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>45646</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>46009</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>44402</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         <v>45684</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>45174</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>45783</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44405.43472222222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>44739</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>44306</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>45110</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         <v>44419</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>45236</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         <v>45737.45327546296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         <v>45587.55017361111</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         <v>45846</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>45463</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
         <v>45902</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>44817</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>44832</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>45369.66049768519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
         <v>44532</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
         <v>45967.65858796296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>44680</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>45978</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
         <v>45573</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>46009</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>45072</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         <v>45518</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>45007</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>45007</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>45503</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>45568</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44509</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         <v>44340</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44696.88850694444</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44696.88001157407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44782</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44402</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>44550</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>44405</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44322</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8047,7 +8047,7 @@
         <v>44586</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44582</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
         <v>44696.89327546296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44694</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44518</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44796.64672453704</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>44306</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         <v>44672</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44662.89638888889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>45205</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>45021</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>45110</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>44977</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8900,7 +8900,7 @@
         <v>45050</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>44643</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45348</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45156</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>45902</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44545</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>45831</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>45910.55059027778</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45910.55325231481</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>44790.65153935185</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45079</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>44832</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>44799.60422453703</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44993</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9728,7 +9728,7 @@
         <v>44595</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>44832</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>45084.48592592592</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>45516</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>45846</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>45839</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>45839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44832</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44832</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10261,7 +10261,7 @@
         <v>45874</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>45315</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10385,7 +10385,7 @@
         <v>45881</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44946</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>45973.35263888889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>45973.3569212963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>45973.35608796297</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>45973.35452546296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>45975</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>45594</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10876,7 +10876,7 @@
         <v>45594</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>44796</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         <v>45060</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>44991</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11124,7 +11124,7 @@
         <v>45310</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>45989</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>45975</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>46048</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>46048</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11419,7 +11419,7 @@
         <v>45012</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11481,7 +11481,7 @@
         <v>46051.50020833333</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>46051.50196759259</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>46051.4975</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>46009</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44402</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11791,7 +11791,7 @@
         <v>45463</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>45050</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44608.58400462963</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>45456</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>45236</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44691</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>44991</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>44587</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>45441</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>45071</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>45026</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44826</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>45090.47523148148</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>45735</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>44448</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>45021</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>44405.42373842592</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
